--- a/Excel sheets/ATDD Feature copy document.xlsx
+++ b/Excel sheets/ATDD Feature copy document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjagers\Documents\AL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jules\Documents\AL Programming\Automated-Testing-in-Microsoft-Dynamics-365-Business-Central-Second-Edition\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9702E6C2-A043-4AB6-A1A8-06E7B2201078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B4F0FE-8FED-4F1F-BD92-37B0EA5FF8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{DB99ADC0-1D36-4CB0-890F-ABAEDD9356F9}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="3" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -429,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -452,33 +451,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -486,45 +472,67 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -566,22 +574,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -647,51 +639,45 @@
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,55 +698,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B61ED27B-D0AA-47A2-AC6F-789FD6DCD64F}" name="Table234" displayName="Table234" ref="A1:M87" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B61ED27B-D0AA-47A2-AC6F-789FD6DCD64F}" name="Table234" displayName="Table234" ref="A1:M87" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:M87" xr:uid="{74C06549-5BDA-49EA-8217-9DE86359CCAF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{58C85A73-07AA-4F26-BFB7-0BB04AFAFB85}" name="Feature"/>
     <tableColumn id="9" xr3:uid="{CAED13FD-A192-489D-ACC7-AD161E04D5B1}" name="Sub Feature"/>
     <tableColumn id="13" xr3:uid="{53F8D475-7A17-4A0E-933A-FE16D8BC70B6}" name="Document"/>
-    <tableColumn id="10" xr3:uid="{17B98FF8-D93F-486B-94C8-EA4EE070F20C}" name="UI" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{F8AA0F2E-6DFD-4AE9-9803-B6455457F25D}" name="Positive-negative" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{90D467A7-4845-4D0A-9D3B-F8057AF16CE2}" name="Scenario" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{17B98FF8-D93F-486B-94C8-EA4EE070F20C}" name="UI" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{F8AA0F2E-6DFD-4AE9-9803-B6455457F25D}" name="Positive-negative" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{90D467A7-4845-4D0A-9D3B-F8057AF16CE2}" name="Scenario" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{40E32FEA-E95B-4A01-9BF5-606AA95D8581}" name="Given-When-Then (Tag)"/>
-    <tableColumn id="5" xr3:uid="{2016C5DC-D5BE-4D55-BB6D-B506D350D130}" name="Given-When-Then (Description)" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{8BD73CE6-0664-44BF-A4BC-6F2B40AB97D8}" name="Scenario #" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{E8E28F86-AD40-4B27-B599-37D54E069A4E}" name="ATDD Format" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{2016C5DC-D5BE-4D55-BB6D-B506D350D130}" name="Given-When-Then (Description)" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8BD73CE6-0664-44BF-A4BC-6F2B40AB97D8}" name="Scenario #" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{E8E28F86-AD40-4B27-B599-37D54E069A4E}" name="ATDD Format" dataDxfId="18">
       <calculatedColumnFormula>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{33212ECF-9A45-4C9B-93A9-BB95AD894C0B}" name="Code Format" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{33212ECF-9A45-4C9B-93A9-BB95AD894C0B}" name="Code Format" dataDxfId="17">
       <calculatedColumnFormula>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6E96B40C-A7F1-4245-9D95-9464BF370891}" name="ATDD.TestScriptor Format" dataDxfId="22">
+    <tableColumn id="11" xr3:uid="{6E96B40C-A7F1-4245-9D95-9464BF370891}" name="ATDD.TestScriptor Format" dataDxfId="16">
       <calculatedColumnFormula>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0551BD71-6B30-4282-9317-A4450B8EB5FF}" name="Notes" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{0551BD71-6B30-4282-9317-A4450B8EB5FF}" name="Notes" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC94DC61-3A21-44B1-A4FA-D3AE0A291830}" name="Table23" displayName="Table23" ref="A1:L17" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC94DC61-3A21-44B1-A4FA-D3AE0A291830}" name="Table23" displayName="Table23" ref="A1:L17" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:L17" xr:uid="{74C06549-5BDA-49EA-8217-9DE86359CCAF}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EB12FABE-99EE-4C64-9371-664DA2BC018B}" name="Feature"/>
     <tableColumn id="9" xr3:uid="{C4BF811B-A50B-4F15-ABFB-76F5EF61BAEC}" name="Sub Feature"/>
-    <tableColumn id="10" xr3:uid="{050332A6-04F7-4C80-8BF0-1A37BF66834D}" name="UI" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{91F463C5-D5E2-4E74-89F7-26421CFD4688}" name="Positive-negative" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F4B03F80-242C-48F3-AD45-4F8870F7CF4C}" name="Scenario" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{050332A6-04F7-4C80-8BF0-1A37BF66834D}" name="UI" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{91F463C5-D5E2-4E74-89F7-26421CFD4688}" name="Positive-negative" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F4B03F80-242C-48F3-AD45-4F8870F7CF4C}" name="Scenario" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{CC6D9ED1-342A-442A-A781-19E1B48EC192}" name="Given-When-Then (Tag)"/>
-    <tableColumn id="5" xr3:uid="{4B77C75B-29B6-4D6D-8295-8BCB00B5A021}" name="Given-When-Then (Description)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{7A8CEFC7-AFDE-40F5-BF03-D453506926E6}" name="Scenario #" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{4C548BB4-BEA7-4564-81EF-9BD6BCF666EF}" name="ATDD Format" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{4B77C75B-29B6-4D6D-8295-8BCB00B5A021}" name="Given-When-Then (Description)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7A8CEFC7-AFDE-40F5-BF03-D453506926E6}" name="Scenario #" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4C548BB4-BEA7-4564-81EF-9BD6BCF666EF}" name="ATDD Format" dataDxfId="3">
       <calculatedColumnFormula>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{762A89F1-1CE0-4623-9ECE-7E18ABCC76DC}" name="Code Format" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{762A89F1-1CE0-4623-9ECE-7E18ABCC76DC}" name="Code Format" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{01376FDB-C35B-4080-A02C-72B0C39BDC01}" name="ATDD.TestScriptor Format" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{01376FDB-C35B-4080-A02C-72B0C39BDC01}" name="ATDD.TestScriptor Format" dataDxfId="1">
       <calculatedColumnFormula>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{108458B0-953E-40C3-A10B-F57A3E16C1B8}" name="Notes" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{108458B0-953E-40C3-A10B-F57A3E16C1B8}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,28 +1051,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C97F81-45CE-49FB-8C99-7D99767A1766}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:K32"/>
+    <sheetView tabSelected="1" topLeftCell="D60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="93" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="97.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="93" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1085,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1127,2734 +1113,2718 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="str">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[FEATURE] LookupValue UT Copy document</v>
       </c>
-      <c r="K2" s="13" t="str">
+      <c r="K2" s="12" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue UT Copy document</v>
       </c>
-      <c r="L2" s="18" t="str">
+      <c r="L2" s="15" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Feature 'LookupValue UT Copy document' {</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="8">
+      <c r="H3"/>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="J3" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0001] Copy document with lookup value to sales order without lookup value.</v>
       </c>
-      <c r="K3" s="26" t="str">
+      <c r="K3" s="18" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0001] Copy document with lookup value to sales order without lookup value.</v>
       </c>
-      <c r="L3" s="27" t="str">
+      <c r="L3" s="19" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0001 'Copy document with lookup value to sales order without lookup value.' {</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4"/>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="J4" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="27" t="str">
+      <c r="L4" s="19" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="J5" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document with lookup value.</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="K5" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document with lookup value.</v>
       </c>
-      <c r="L5" s="17" t="str">
+      <c r="L5" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document with lookup value.' } }</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="J6" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order without lookup value.</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="K6" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order without lookup value.</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order without lookup value.' } }</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="K7" s="14" t="str">
+      <c r="K7" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in sales order.' } }</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="23" t="str">
+      <c r="J8" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K8" s="24" t="str">
+      <c r="K8" s="18" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L8" s="25" t="str">
+      <c r="L8" s="19" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to lookup value from copied document.'</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0002] Copy document with lookup value to sales order with lookup value.</v>
       </c>
-      <c r="K9" s="14" t="str">
+      <c r="K9" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0002] Copy document with lookup value to sales order with lookup value.</v>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0002 'Copy document with lookup value to sales order with lookup value.' {</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="J10" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K10" s="14" t="str">
+      <c r="K10" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="str">
+      <c r="J11" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document with lookup value.</v>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document with lookup value.</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document with lookup value.' } }</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="J12" s="15" t="str">
+      <c r="J12" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="15" t="str">
+      <c r="J13" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in sales order.' } }</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="J14" s="15" t="str">
+      <c r="J14" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to lookup value from copied document.'</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="J15" s="15" t="str">
+      <c r="J15" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0003] Copy document without lookup value to sales order with lookup value.</v>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0003] Copy document without lookup value to sales order with lookup value.</v>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0003 'Copy document without lookup value to sales order with lookup value.' {</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="F16"/>
       <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="15" t="str">
+      <c r="J16" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>3</v>
       </c>
-      <c r="J17" s="15" t="str">
+      <c r="J17" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document without lookup value.' } }</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>3</v>
       </c>
-      <c r="J18" s="15" t="str">
+      <c r="J18" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="J19" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in sales order.</v>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in sales order.' } }</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>3</v>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="J20" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to lookup value from copied document.'</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>4</v>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J21" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0004] Copy document with lookup value to quote sale without lookup value.</v>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0004] Copy document with lookup value to quote sale without lookup value.</v>
       </c>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0004 'Copy document with lookup value to quote sale without lookup value.' {</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="F22"/>
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>4</v>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="J22" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>4</v>
       </c>
-      <c r="J23" s="15" t="str">
+      <c r="J23" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document without lookup value.' } }</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>4</v>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="J24" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales quote with lookup value.</v>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales quote with lookup value.</v>
       </c>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales quote with lookup value.' } }</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>4</v>
       </c>
-      <c r="J25" s="15" t="str">
+      <c r="J25" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in sales quote.</v>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in sales quote.</v>
       </c>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in sales quote.' } }</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>4</v>
       </c>
-      <c r="J26" s="15" t="str">
+      <c r="J26" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales quote has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales quote has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales quote has lookup value equal to lookup value from copied document.'</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>5</v>
       </c>
-      <c r="J27" s="15" t="str">
+      <c r="J27" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0005] Copy document with lookup value to sales invoice without lookup value.</v>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0005] Copy document with lookup value to sales invoice without lookup value.</v>
       </c>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0005 'Copy document with lookup value to sales invoice without lookup value.' {</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>5</v>
       </c>
-      <c r="J28" s="15" t="str">
+      <c r="J28" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>5</v>
       </c>
-      <c r="J29" s="15" t="str">
+      <c r="J29" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document without lookup value.' } }</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>5</v>
       </c>
-      <c r="J30" s="15" t="str">
+      <c r="J30" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales invoice document with lookup value.</v>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales invoice document with lookup value.</v>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales invoice document with lookup value.' } }</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>5</v>
       </c>
-      <c r="J31" s="15" t="str">
+      <c r="J31" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in sales ord.</v>
       </c>
-      <c r="K31" s="16" t="str">
+      <c r="K31" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in sales ord.</v>
       </c>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in sales ord.' } }</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>5</v>
       </c>
-      <c r="J32" s="15" t="str">
+      <c r="J32" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales invoice has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K32" s="16" t="str">
+      <c r="K32" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales invoice has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales invoice has lookup value equal to lookup value from copied document.'</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="F33" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>6</v>
       </c>
-      <c r="J33" s="15" t="str">
+      <c r="J33" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0006] Copy document with lookup value to blanket sales order without lookup value.</v>
       </c>
-      <c r="K33" s="16" t="str">
+      <c r="K33" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0006] Copy document with lookup value to blanket sales order without lookup value.</v>
       </c>
-      <c r="L33" s="22" t="str">
+      <c r="L33" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0006 'Copy document with lookup value to blanket sales order without lookup value.' {</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="F34"/>
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>6</v>
       </c>
-      <c r="J34" s="15" t="str">
+      <c r="J34" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K34" s="16" t="str">
+      <c r="K34" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L34" s="22" t="str">
+      <c r="L34" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>6</v>
       </c>
-      <c r="J35" s="15" t="str">
+      <c r="J35" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="K35" s="16" t="str">
+      <c r="K35" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="L35" s="22" t="str">
+      <c r="L35" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document without lookup value.' } }</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>6</v>
       </c>
-      <c r="J36" s="15" t="str">
+      <c r="J36" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Blanket sales order with lookup value.</v>
       </c>
-      <c r="K36" s="16" t="str">
+      <c r="K36" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Blanket sales order with lookup value.</v>
       </c>
-      <c r="L36" s="22" t="str">
+      <c r="L36" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Blanket sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>6</v>
       </c>
-      <c r="J37" s="15" t="str">
+      <c r="J37" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in blanket sales order.</v>
       </c>
-      <c r="K37" s="16" t="str">
+      <c r="K37" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in blanket sales order.</v>
       </c>
-      <c r="L37" s="22" t="str">
+      <c r="L37" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in blanket sales order.' } }</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>6</v>
       </c>
-      <c r="J38" s="15" t="str">
+      <c r="J38" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Blanket sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K38" s="16" t="str">
+      <c r="K38" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Blanket sales order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L38" s="22" t="str">
+      <c r="L38" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Blanket sales order has lookup value equal to lookup value from copied document.'</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>7</v>
       </c>
-      <c r="J39" s="15" t="str">
+      <c r="J39" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0007] Copy document with lookup value to return order without lookup value.</v>
       </c>
-      <c r="K39" s="16" t="str">
+      <c r="K39" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0007] Copy document with lookup value to return order without lookup value.</v>
       </c>
-      <c r="L39" s="22" t="str">
+      <c r="L39" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0007 'Copy document with lookup value to return order without lookup value.' {</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="F40"/>
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>7</v>
       </c>
-      <c r="J40" s="15" t="str">
+      <c r="J40" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K40" s="16" t="str">
+      <c r="K40" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L40" s="22" t="str">
+      <c r="L40" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>7</v>
       </c>
-      <c r="J41" s="15" t="str">
+      <c r="J41" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="K41" s="16" t="str">
+      <c r="K41" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Document without lookup value.</v>
       </c>
-      <c r="L41" s="22" t="str">
+      <c r="L41" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Document without lookup value.' } }</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>7</v>
       </c>
-      <c r="J42" s="15" t="str">
+      <c r="J42" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Return order document with lookup value.</v>
       </c>
-      <c r="K42" s="16" t="str">
+      <c r="K42" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Return order document with lookup value.</v>
       </c>
-      <c r="L42" s="22" t="str">
+      <c r="L42" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Return order document with lookup value.' } }</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>7</v>
       </c>
-      <c r="J43" s="15" t="str">
+      <c r="J43" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Copy document in return order.</v>
       </c>
-      <c r="K43" s="16" t="str">
+      <c r="K43" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Copy document in return order.</v>
       </c>
-      <c r="L43" s="22" t="str">
+      <c r="L43" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Copy document in return order.' } }</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>32</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>7</v>
       </c>
-      <c r="J44" s="15" t="str">
+      <c r="J44" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Return order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="K44" s="16" t="str">
+      <c r="K44" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Return order has lookup value equal to lookup value from copied document.</v>
       </c>
-      <c r="L44" s="22" t="str">
+      <c r="L44" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Return order has lookup value equal to lookup value from copied document.' } }</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="21" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="11" t="str">
+      <c r="I45" s="11"/>
+      <c r="J45" s="10" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[FEATURE] LookupValue UT Restore archived sales</v>
       </c>
-      <c r="K45" s="13" t="str">
+      <c r="K45" s="12" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue UT Restore archived sales</v>
       </c>
-      <c r="L45" s="18" t="str">
+      <c r="L45" s="15" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Feature 'LookupValue UT Restore archived sales' {</v>
       </c>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" ht="27.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" ht="27" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="F46" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>8</v>
       </c>
-      <c r="J46" s="15" t="str">
+      <c r="J46" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0008] Restore archived document with lookup value to sales order with lookup value.</v>
       </c>
-      <c r="K46" s="16" t="str">
+      <c r="K46" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0008] Restore archived document with lookup value to sales order with lookup value.</v>
       </c>
-      <c r="L46" s="22" t="str">
+      <c r="L46" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0008 'Restore archived document with lookup value to sales order with lookup value.' {</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="F47"/>
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>8</v>
       </c>
-      <c r="J47" s="15" t="str">
+      <c r="J47" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K47" s="16" t="str">
+      <c r="K47" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L47" s="22" t="str">
+      <c r="L47" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" t="s">
         <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>8</v>
       </c>
-      <c r="J48" s="15" t="str">
+      <c r="J48" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="K48" s="16" t="str">
+      <c r="K48" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="L48" s="22" t="str">
+      <c r="L48" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>8</v>
       </c>
-      <c r="J49" s="15" t="str">
+      <c r="J49" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived sales order with lookup value.</v>
       </c>
-      <c r="K49" s="16" t="str">
+      <c r="K49" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived sales order with lookup value.</v>
       </c>
-      <c r="L49" s="22" t="str">
+      <c r="L49" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>8</v>
       </c>
-      <c r="J50" s="15" t="str">
+      <c r="J50" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="K50" s="16" t="str">
+      <c r="K50" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="L50" s="22" t="str">
+      <c r="L50" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives sales order.' } }</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>8</v>
       </c>
-      <c r="J51" s="15" t="str">
+      <c r="J51" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to lookup value from the archived sales order.</v>
       </c>
-      <c r="K51" s="16" t="str">
+      <c r="K51" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to lookup value from the archived sales order.</v>
       </c>
-      <c r="L51" s="22" t="str">
+      <c r="L51" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to lookup value from the archived sales order.'</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="F52" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>9</v>
       </c>
-      <c r="J52" s="15" t="str">
+      <c r="J52" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0009] Restore archived document without lookup value to sales order with lookup value.</v>
       </c>
-      <c r="K52" s="16" t="str">
+      <c r="K52" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0009] Restore archived document without lookup value to sales order with lookup value.</v>
       </c>
-      <c r="L52" s="22" t="str">
+      <c r="L52" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0009 'Restore archived document without lookup value to sales order with lookup value.' {</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="F53"/>
       <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>9</v>
       </c>
-      <c r="J53" s="15" t="str">
+      <c r="J53" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K53" s="16" t="str">
+      <c r="K53" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L53" s="22" t="str">
+      <c r="L53" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>9</v>
       </c>
-      <c r="J54" s="15" t="str">
+      <c r="J54" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="K54" s="16" t="str">
+      <c r="K54" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order with lookup value.</v>
       </c>
-      <c r="L54" s="22" t="str">
+      <c r="L54" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>9</v>
       </c>
-      <c r="J55" s="15" t="str">
+      <c r="J55" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived sales order without lookup value.</v>
       </c>
-      <c r="K55" s="16" t="str">
+      <c r="K55" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived sales order without lookup value.</v>
       </c>
-      <c r="L55" s="22" t="str">
+      <c r="L55" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived sales order without lookup value.' } }</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>40</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>9</v>
       </c>
-      <c r="J56" s="15" t="str">
+      <c r="J56" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="K56" s="16" t="str">
+      <c r="K56" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="L56" s="22" t="str">
+      <c r="L56" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives sales order.' } }</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>9</v>
       </c>
-      <c r="J57" s="15" t="str">
+      <c r="J57" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has no lookup value.</v>
       </c>
-      <c r="K57" s="16" t="str">
+      <c r="K57" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has no lookup value.</v>
       </c>
-      <c r="L57" s="22" t="str">
+      <c r="L57" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has no lookup value.'</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>73</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>10</v>
       </c>
-      <c r="J58" s="15" t="str">
+      <c r="J58" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0010] Restore archived document with lookup value to sales order without lookup value.</v>
       </c>
-      <c r="K58" s="16" t="str">
+      <c r="K58" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0010] Restore archived document with lookup value to sales order without lookup value.</v>
       </c>
-      <c r="L58" s="22" t="str">
+      <c r="L58" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0010 'Restore archived document with lookup value to sales order without lookup value.' {</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s">
         <v>40</v>
       </c>
-      <c r="F59"/>
       <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>10</v>
       </c>
-      <c r="J59" s="15" t="str">
+      <c r="J59" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K59" s="16" t="str">
+      <c r="K59" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L59" s="22" t="str">
+      <c r="L59" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>10</v>
       </c>
-      <c r="J60" s="15" t="str">
+      <c r="J60" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales order without lookup value.</v>
       </c>
-      <c r="K60" s="16" t="str">
+      <c r="K60" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales order without lookup value.</v>
       </c>
-      <c r="L60" s="22" t="str">
+      <c r="L60" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales order without lookup value.' } }</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>10</v>
       </c>
-      <c r="J61" s="15" t="str">
+      <c r="J61" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived sales order with lookup value.</v>
       </c>
-      <c r="K61" s="16" t="str">
+      <c r="K61" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived sales order with lookup value.</v>
       </c>
-      <c r="L61" s="22" t="str">
+      <c r="L61" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived sales order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>10</v>
       </c>
-      <c r="J62" s="15" t="str">
+      <c r="J62" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="K62" s="16" t="str">
+      <c r="K62" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives sales order.</v>
       </c>
-      <c r="L62" s="22" t="str">
+      <c r="L62" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives sales order.' } }</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="G63" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>10</v>
       </c>
-      <c r="J63" s="15" t="str">
+      <c r="J63" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to archived sales order.</v>
       </c>
-      <c r="K63" s="16" t="str">
+      <c r="K63" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to archived sales order.</v>
       </c>
-      <c r="L63" s="22" t="str">
+      <c r="L63" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to archived sales order.'</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>48</v>
       </c>
       <c r="F64" t="s">
         <v>75</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>11</v>
       </c>
-      <c r="J64" s="15" t="str">
+      <c r="J64" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0011] Restore archived document with lookup value to sales quote without lookup value.</v>
       </c>
-      <c r="K64" s="16" t="str">
+      <c r="K64" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0011] Restore archived document with lookup value to sales quote without lookup value.</v>
       </c>
-      <c r="L64" s="22" t="str">
+      <c r="L64" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0011 'Restore archived document with lookup value to sales quote without lookup value.' {</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>48</v>
       </c>
-      <c r="F65"/>
       <c r="G65" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>11</v>
       </c>
-      <c r="J65" s="15" t="str">
+      <c r="J65" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K65" s="16" t="str">
+      <c r="K65" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L65" s="22" t="str">
+      <c r="L65" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" t="s">
         <v>48</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>11</v>
       </c>
-      <c r="J66" s="15" t="str">
+      <c r="J66" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales quote without lookup value.</v>
       </c>
-      <c r="K66" s="16" t="str">
+      <c r="K66" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales quote without lookup value.</v>
       </c>
-      <c r="L66" s="22" t="str">
+      <c r="L66" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales quote without lookup value.' } }</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <v>11</v>
       </c>
-      <c r="J67" s="15" t="str">
+      <c r="J67" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived sales quote with lookup value.</v>
       </c>
-      <c r="K67" s="16" t="str">
+      <c r="K67" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived sales quote with lookup value.</v>
       </c>
-      <c r="L67" s="22" t="str">
+      <c r="L67" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived sales quote with lookup value.' } }</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>32</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" t="s">
         <v>48</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>11</v>
       </c>
-      <c r="J68" s="15" t="str">
+      <c r="J68" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives sales quote.</v>
       </c>
-      <c r="K68" s="16" t="str">
+      <c r="K68" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives sales quote.</v>
       </c>
-      <c r="L68" s="22" t="str">
+      <c r="L68" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives sales quote.' } }</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="G69" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>11</v>
       </c>
-      <c r="J69" s="15" t="str">
+      <c r="J69" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales order has lookup value equal to archived sales order.</v>
       </c>
-      <c r="K69" s="16" t="str">
+      <c r="K69" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value equal to archived sales order.</v>
       </c>
-      <c r="L69" s="22" t="str">
+      <c r="L69" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales order has lookup value equal to archived sales order.'</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
         <v>79</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>12</v>
       </c>
-      <c r="J70" s="15" t="str">
+      <c r="J70" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0012] Restore archived document with lookup value to sales Invoice without lookup value.</v>
       </c>
-      <c r="K70" s="16" t="str">
+      <c r="K70" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0012] Restore archived document with lookup value to sales Invoice without lookup value.</v>
       </c>
-      <c r="L70" s="22" t="str">
+      <c r="L70" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0012 'Restore archived document with lookup value to sales Invoice without lookup value.' {</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" t="s">
         <v>49</v>
       </c>
-      <c r="F71"/>
       <c r="G71" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>12</v>
       </c>
-      <c r="J71" s="15" t="str">
+      <c r="J71" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K71" s="16" t="str">
+      <c r="K71" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L71" s="22" t="str">
+      <c r="L71" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>32</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>12</v>
       </c>
-      <c r="J72" s="15" t="str">
+      <c r="J72" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Sales invoice without lookup value.</v>
       </c>
-      <c r="K72" s="16" t="str">
+      <c r="K72" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Sales invoice without lookup value.</v>
       </c>
-      <c r="L72" s="22" t="str">
+      <c r="L72" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Sales invoice without lookup value.' } }</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" t="s">
         <v>49</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <v>12</v>
       </c>
-      <c r="J73" s="15" t="str">
+      <c r="J73" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived sales invoice with lookup value.</v>
       </c>
-      <c r="K73" s="16" t="str">
+      <c r="K73" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived sales invoice with lookup value.</v>
       </c>
-      <c r="L73" s="22" t="str">
+      <c r="L73" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived sales invoice with lookup value.' } }</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" t="s">
         <v>49</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>12</v>
       </c>
-      <c r="J74" s="15" t="str">
+      <c r="J74" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives sales invoice.</v>
       </c>
-      <c r="K74" s="16" t="str">
+      <c r="K74" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives sales invoice.</v>
       </c>
-      <c r="L74" s="22" t="str">
+      <c r="L74" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives sales invoice.' } }</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" t="s">
         <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <v>12</v>
       </c>
-      <c r="J75" s="15" t="str">
+      <c r="J75" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Sales invoice has lookup value equal to archived sales invoice.</v>
       </c>
-      <c r="K75" s="16" t="str">
+      <c r="K75" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales invoice has lookup value equal to archived sales invoice.</v>
       </c>
-      <c r="L75" s="22" t="str">
+      <c r="L75" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Sales invoice has lookup value equal to archived sales invoice.'</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" t="s">
         <v>95</v>
       </c>
       <c r="F76" t="s">
         <v>80</v>
       </c>
-      <c r="I76" s="8">
-        <v>13</v>
-      </c>
-      <c r="J76" s="15" t="str">
+      <c r="I76" s="7">
+        <v>13</v>
+      </c>
+      <c r="J76" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0013] Restore archived document with lookup value to blanket sales order without lookup value.</v>
       </c>
-      <c r="K76" s="16" t="str">
+      <c r="K76" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0013] Restore archived document with lookup value to blanket sales order without lookup value.</v>
       </c>
-      <c r="L76" s="22" t="str">
+      <c r="L76" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0013 'Restore archived document with lookup value to blanket sales order without lookup value.' {</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" t="s">
         <v>95</v>
       </c>
-      <c r="F77"/>
       <c r="G77" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I77" s="8">
-        <v>13</v>
-      </c>
-      <c r="J77" s="15" t="str">
+      <c r="I77" s="7">
+        <v>13</v>
+      </c>
+      <c r="J77" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K77" s="16" t="str">
+      <c r="K77" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L77" s="22" t="str">
+      <c r="L77" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" t="s">
         <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I78" s="8">
-        <v>13</v>
-      </c>
-      <c r="J78" s="15" t="str">
+      <c r="I78" s="7">
+        <v>13</v>
+      </c>
+      <c r="J78" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Blanket sales without lookup value.</v>
       </c>
-      <c r="K78" s="16" t="str">
+      <c r="K78" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Blanket sales without lookup value.</v>
       </c>
-      <c r="L78" s="22" t="str">
+      <c r="L78" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Blanket sales without lookup value.' } }</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" t="s">
         <v>95</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I79" s="8">
-        <v>13</v>
-      </c>
-      <c r="J79" s="15" t="str">
+      <c r="I79" s="7">
+        <v>13</v>
+      </c>
+      <c r="J79" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived blanket sales with lookup value.</v>
       </c>
-      <c r="K79" s="16" t="str">
+      <c r="K79" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived blanket sales with lookup value.</v>
       </c>
-      <c r="L79" s="22" t="str">
+      <c r="L79" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived blanket sales with lookup value.' } }</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I80" s="8">
-        <v>13</v>
-      </c>
-      <c r="J80" s="15" t="str">
+      <c r="I80" s="7">
+        <v>13</v>
+      </c>
+      <c r="J80" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives blanket sales.</v>
       </c>
-      <c r="K80" s="16" t="str">
+      <c r="K80" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives blanket sales.</v>
       </c>
-      <c r="L80" s="22" t="str">
+      <c r="L80" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives blanket sales.' } }</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" t="s">
         <v>95</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I81" s="8">
-        <v>13</v>
-      </c>
-      <c r="J81" s="15" t="str">
+      <c r="I81" s="7">
+        <v>13</v>
+      </c>
+      <c r="J81" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Blanket sales has lookup value equal to archived blanked sales.</v>
       </c>
-      <c r="K81" s="16" t="str">
+      <c r="K81" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Blanket sales has lookup value equal to archived blanked sales.</v>
       </c>
-      <c r="L81" s="22" t="str">
+      <c r="L81" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Blanket sales has lookup value equal to archived blanked sales.'</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" t="s">
         <v>51</v>
       </c>
       <c r="F82" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="7">
         <v>14</v>
       </c>
-      <c r="J82" s="15" t="str">
+      <c r="J82" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0014] Restore archived document with lookup value to return order without lookup value.</v>
       </c>
-      <c r="K82" s="16" t="str">
+      <c r="K82" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0014] Restore archived document with lookup value to return order without lookup value.</v>
       </c>
-      <c r="L82" s="22" t="str">
+      <c r="L82" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0014 'Restore archived document with lookup value to return order without lookup value.' {</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" t="s">
         <v>51</v>
       </c>
-      <c r="F83"/>
       <c r="G83" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="7">
         <v>14</v>
       </c>
-      <c r="J83" s="15" t="str">
+      <c r="J83" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Lookup Value</v>
       </c>
-      <c r="K83" s="16" t="str">
+      <c r="K83" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Lookup Value</v>
       </c>
-      <c r="L83" s="22" t="str">
+      <c r="L83" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Lookup Value' } }</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" t="s">
         <v>51</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="7">
         <v>14</v>
       </c>
-      <c r="J84" s="15" t="str">
+      <c r="J84" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Return order without lookup value.</v>
       </c>
-      <c r="K84" s="16" t="str">
+      <c r="K84" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Return order without lookup value.</v>
       </c>
-      <c r="L84" s="22" t="str">
+      <c r="L84" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Return order without lookup value.' } }</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" t="s">
         <v>51</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="7">
         <v>14</v>
       </c>
-      <c r="J85" s="15" t="str">
+      <c r="J85" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] Archived return order with lookup value.</v>
       </c>
-      <c r="K85" s="16" t="str">
+      <c r="K85" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] Archived return order with lookup value.</v>
       </c>
-      <c r="L85" s="22" t="str">
+      <c r="L85" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'Archived return order with lookup value.' } }</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" t="s">
         <v>51</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="7">
         <v>14</v>
       </c>
-      <c r="J86" s="15" t="str">
+      <c r="J86" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Restore archives return order.</v>
       </c>
-      <c r="K86" s="16" t="str">
+      <c r="K86" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Restore archives return order.</v>
       </c>
-      <c r="L86" s="22" t="str">
+      <c r="L86" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Restore archives return order.' } }</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" t="s">
         <v>51</v>
       </c>
       <c r="G87" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="7">
         <v>14</v>
       </c>
-      <c r="J87" s="15" t="str">
+      <c r="J87" s="6" t="str">
         <f>IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table234[[#This Row],[Scenario '#]],"0000"),"] ",Table234[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table234[[#This Row],[Given-When-Then (Tag)]]),"] ",Table234[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Return order has lookup value equal to archived return order.</v>
       </c>
-      <c r="K87" s="16" t="str">
+      <c r="K87" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table234[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Return order has lookup value equal to archived return order.</v>
       </c>
-      <c r="L87" s="22" t="str">
+      <c r="L87" s="14" t="str">
         <f ca="1">IF(Table234[[#This Row],[Given-When-Then (Tag)]]="",IF(Table234[[#This Row],[Scenario]]="",IF(Table234[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table234[[#This Row],[Feature]]," ",Table234[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table234[[#This Row],[Scenario '#]],"0000")," '",Table234[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table234[[#This Row],[Given-When-Then (Tag)]]," '",Table234[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Return order has lookup value equal to archived return order.' } }</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3871,18 +3841,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3902,21 +3872,21 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="8" customWidth="1"/>
-    <col min="9" max="11" width="43.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="7" customWidth="1"/>
+    <col min="9" max="11" width="43.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3896,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3954,62 +3924,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="str">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[FEATURE] Label UT Customer</v>
       </c>
-      <c r="J2" s="13" t="str">
+      <c r="J2" s="12" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] Label UT Customer</v>
       </c>
-      <c r="K2" s="18" t="str">
+      <c r="K2" s="15" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Feature 'Label UT Customer' {</v>
       </c>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0001] Check that label can be assigned to customer</v>
       </c>
-      <c r="J3" s="14" t="str">
+      <c r="J3" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0001] Check that label can be assigned to customer</v>
       </c>
-      <c r="K3" s="17" t="str">
+      <c r="K3" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0001 'Check that label can be assigned to customer' {</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4019,26 +3989,26 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A label</v>
       </c>
-      <c r="J4" s="14" t="str">
+      <c r="J4" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A label</v>
       </c>
-      <c r="K4" s="17" t="str">
+      <c r="K4" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A label'</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4048,26 +4018,26 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A customer</v>
       </c>
-      <c r="J5" s="14" t="str">
+      <c r="J5" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer</v>
       </c>
-      <c r="K5" s="17" t="str">
+      <c r="K5" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A customer'</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4077,26 +4047,26 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Assign label to customer</v>
       </c>
-      <c r="J6" s="14" t="str">
+      <c r="J6" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Assign label to customer</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Assign label to customer'</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4106,26 +4076,26 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Customer has label field populated</v>
       </c>
-      <c r="J7" s="14" t="str">
+      <c r="J7" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer has label field populated</v>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Customer has label field populated' }</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4135,26 +4105,26 @@
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="15" t="str">
+      <c r="I8" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0002] Check that label field table relation is validated for non-existing label on customer</v>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0002] Check that label field table relation is validated for non-existing label on customer</v>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0002 'Check that label field table relation is validated for non-existing label on customer' {</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4167,26 +4137,26 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="15" t="str">
+      <c r="I9" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A non-existing label value</v>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A non-existing label value</v>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A non-existing label value'</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4199,26 +4169,26 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A customer record variable</v>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer record variable</v>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A customer record variable'</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4231,26 +4201,26 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Assign non-existing label to customer</v>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Assign non-existing label to customer</v>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Assign non-existing label to customer'</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4263,26 +4233,26 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Non existing label error was thrown</v>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Non existing label error was thrown</v>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Non existing label error was thrown' }</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4292,26 +4262,26 @@
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="15" t="str">
+      <c r="I13" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[SCENARIO #0003] Check that label can be assigned on customer card</v>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0003] Check that label can be assigned on customer card</v>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Scenario 0003 'Check that label can be assigned on customer card' {</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4324,26 +4294,26 @@
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="I14" s="15" t="str">
+      <c r="I14" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A label</v>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A label</v>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A label'</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4356,26 +4326,26 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="I15" s="15" t="str">
+      <c r="I15" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[GIVEN] A customer card</v>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer card</v>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Given 'A customer card'</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4388,26 +4358,26 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="I16" s="15" t="str">
+      <c r="I16" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[WHEN] Assign label to customer card</v>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Assign label to customer card</v>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>When 'Assign label to customer card'</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4420,30 +4390,30 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="I17" s="15" t="str">
+      <c r="I17" s="6" t="str">
         <f>IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table23[[#This Row],[Scenario '#]],"0000"),"] ",Table23[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table23[[#This Row],[Given-When-Then (Tag)]]),"] ",Table23[[#This Row],[Given-When-Then (Description)]]))</f>
         <v>[THEN] Customer has label field populated</v>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="13" t="str">
         <f>_xlfn.CONCAT("//",Table23[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer has label field populated</v>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="14" t="str">
         <f ca="1">IF(Table23[[#This Row],[Given-When-Then (Tag)]]="",IF(Table23[[#This Row],[Scenario]]="",IF(Table23[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table23[[#This Row],[Feature]]," ",Table23[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table23[[#This Row],[Scenario '#]],"0000")," '",Table23[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table23[[#This Row],[Given-When-Then (Tag)]]," '",Table23[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
         <v>Then 'Customer has label field populated' } }</v>
       </c>
     </row>
-    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4460,18 +4430,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
